--- a/chat_histories/chat_history.xlsx
+++ b/chat_histories/chat_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,30 +436,35 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>session_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>user</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>user_sual</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>time</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>selected_category</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>assistant_cavab</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>cavab_category</t>
         </is>
@@ -468,26 +473,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nəbi</t>
+          <t>1140592398</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Nəbi</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>nə sənəd lazımdır ki bilet alım?</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>2025-07-30 10:38:49</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Yetkinlik yaşına çatmış Azərbaycan Respublikası vətəndaşı aşağıdakı sənədləri təqdim etdikdə və təyin olunmuş vaxtda ovçuluğun minimum sınağını keçdiyi halda ovçuluq biletini əldə edə bilər: fiziki şəxsin şəxsiyyətini təsdiq edən sənəd - şəxsiyyət vəsiqəsinin surəti; ov silahının saxlanılması və gəzdirilməsi hüququnu təsdiq edən şəhadətnamənin surəti; iki ədəd 3x4 ölçüdə foto şəkil; dövlət rüsumunun ödənilməsi barədə qəbzin surəti.</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Ovçuluq</t>
         </is>
@@ -496,74 +506,89 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nəbi</t>
+          <t>1140592398</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Nəbi</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>yaxsi , bəs balıqciliq ucun ne sened lazımdı</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>2025-07-30 10:39:28</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Balıq və digər su bioresurslarının ovu məqsədi ilə hüquqi və fiziki şəxslər balıqovlama biletini almaq üçün Nazirliyə ərizə təqdim etməlidir. Ərizədə aşağıdakılar göstərilməlidir: balıq və digər su bioresurslarının sənaye üsulu ilə ovu nəzərdə tutulan su obyektinin adı, su bioresurslarının növləri, ov limitinin miqdarı, ovlama üsulu; ovda iştirak edəcək balıqçıların soyadları, adları və atalarının adları. Ərizəyə aşağıdakı sənədlər əlavə edilir: hüquqi şəxslərin dövlət reyestrindən çıxarışının surəti; şəxsiyyət vəsiqəsinin surəti; balıqovlayan gəmilərin qeydiyyatına dair sənədlər; mülkiyyət hüquqlarını təsdiq edən sənədlərin surəti.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Balıqçılıq</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1140592398</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
         <is>
           <t>balıq harda tutmaq olar</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Ovçuluq</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Gün ərzində 10 ədəddən çox olmayan xərçəng, 0.5 kq-dan artıq olmayan onurğasızlar, balıqçılıq su obyektində olduğu müddətdə 5 kq-dan artıq olmayan balıqlar.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Balıqçılıq</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1140592398</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Yard, yard ki.</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Ovçuluq</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Ovçuluq biletinə malik olan Azərbaycan Respublikası vətəndaşları ov mövsümündə ov icazələrinin əldə edilməsi ilə bağlı Ərazi Ekologiya İdarələrinə müraciət edə bilərlər. Əcnəbilər və vətəndaşlığı olmayan şəxslər isə ov icazələrini almaq üçün Ekologiya və Təbii Sərvətlər Nazirliyinin 5 saylı Asan Xidmət Mərkəzində fəaliyyyət göstərən pəncərəsinə müraciət etməli, xüsusi ərizə formasını doldurmaqla sənədlərin surətlərini təqdim etməlidir. Müraciətdə aşağıdakılar öz əksini tapmalıdır: şəxsiyyəti təsdiq edən sənəd haqqında məlumatlar; ov silahının istifadəsinə dair icazə və silahın respublika ərazisində saxlanma müddəti; ovun vaxtı; ovlama yeri; ov obyektinin növü.</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Ovçuluq</t>
         </is>
@@ -572,26 +597,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nəbi</t>
+          <t>1140592398</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Nəbi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Balıq harda tutmaq olar</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Balıqçılıq</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Balıqçılıq</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Gün ərzində 10 ədəddən çox olmayan xərçəng, 0.5 kq-dan artıq olmayan onurğasızlar, balıqçılıq su obyektində olduğu müddətdə 5 kq-dan artıq olmayan balıqlar.</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Balıqçılıq</t>
         </is>
@@ -600,30 +630,35 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nəbi</t>
+          <t>1140592398</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Nəbi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Bili et parl janu dələ məcqat.</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>2025-07-28 12:25:29</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Balıqçılıq</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Balıqçılıq</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Təəssüf ki, sorğunuza uyğun cavab tapa bilmədim. Zəhmət olmasa, sualınızı fərqli şəkildə ifadə edin.</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Kateqoriya tapılmadı</t>
         </is>
@@ -632,30 +667,35 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nəbi</t>
+          <t>1140592398</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Nəbi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Salamğ az ç запис&lt;|fa|&gt; both our לעしНу tam �uit Mygjal 의lehă puesto</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>2025-07-28 15:57:10</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Balıqçılıq</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Balıqçılıq</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Təəssüf ki, sorğunuza uyğun cavab tapa bilmədim. Zəhmət olmasa, sualınızı fərqli şəkildə ifadə edin.</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Kateqoriya tapılmadı</t>
         </is>
@@ -664,30 +704,35 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nəbi</t>
+          <t>1140592398</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Nəbi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Salam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>2025-07-28 15:57:11</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Balıqçılıq</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Balıqçılıq</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>Zəhmət olmasa, sorğunuzu daha ətraflı formada yazın.</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Sistem Mesajı</t>
         </is>
@@ -696,30 +741,35 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nəbi</t>
+          <t>1140592398</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Nəbi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>olay hísmeli.</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>2025-07-28 16:00:24</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Balıqçılıq</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Balıqçılıq</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>Zəhmət olmasa, sorğunuzu daha ətraflı formada yazın.</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Sistem Mesajı</t>
         </is>
@@ -728,30 +778,35 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nəbi</t>
+          <t>1140592398</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Nəbi</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Avçuluq bileti barədə məlumat</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>2025-07-28 16:52:38</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Balıqçılıq</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Balıqçılıq</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>Yetkinlik yaşına çatmış Azərbaycan Respublikası vətəndaşı aşağıdakı sənədləri təqdim etdikdə və təyin olunmuş vaxtda ovçuluğun minimum sınağını keçdiyi halda ovçuluq biletini əldə edə bilər: fiziki şəxsin şəxsiyyətini təsdiq edən sənəd - şəxsiyyət vəsiqəsinin surəti; ov silahının saxlanılması və gəzdirilməsi hüququnu təsdiq edən şəhadətnamənin surəti; iki ədəd 3x4 ölçüdə foto şəkil; dövlət rüsumunun ödənilməsi barədə qəbzin surəti.</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Ovçuluq</t>
         </is>
@@ -760,30 +815,35 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nəbi</t>
+          <t>1140592398</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Nəbi</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Salam, bağlıqçılığ!</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>2025-07-28 20:30:45</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Balıqçılıq</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Balıqçılıq</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>Zəhmət olmasa, sorğunuzu daha ətraflı formada yazın.</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Sistem Mesajı</t>
         </is>
@@ -792,30 +852,35 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nəbi</t>
+          <t>1140592398</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Nəbi</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Bileti haradan əldə etmək olar?</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>2025-07-28 20:42:08</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Ovçuluq</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Yetkinlik yaşına çatmış Azərbaycan Respublikası vətəndaşı aşağıdakı sənədləri təqdim etdikdə və təyin olunmuş vaxtda ovçuluğun minimum sınağını keçdiyi halda ovçuluq biletini əldə edə bilər: fiziki şəxsin şəxsiyyətini təsdiq edən sənəd - şəxsiyyət vəsiqəsinin surəti; ov silahının saxlanılması və gəzdirilməsi hüququnu təsdiq edən şəhadətnamənin surəti; iki ədəd 3x4 ölçüdə foto şəkil; dövlət rüsumunun ödənilməsi barədə qəbzin surəti.</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Ovçuluq</t>
         </is>
@@ -824,30 +889,35 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>1140592398</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>test Test</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Ekoloji və Təbii Sərbətlər Nazirliyi harada yerləşir?</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>2025-07-28 20:31:03</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Ekologiya və Təbii Sərvətlər Nazirliyi</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Bakı şəhəri, Yasamal rayonu, Kazım Kazımzadə küçəsi 100a. İndeks AZ 1062</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Ekologiya və Təbii Sərvətlər Nazirliyi</t>
         </is>
@@ -856,30 +926,35 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nəbi</t>
+          <t>1140592398</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Nəbi</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>Nazirliyin binası harada yerləşir.</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>2025-07-29 08:58:05</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Digər</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Bakı şəhəri, Yasamal rayonu, Kazım Kazımzadə küçəsi 100a. İndeks AZ 1071</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Ekologiya və Təbii Sərvətlər Nazirliyi</t>
         </is>
@@ -888,30 +963,35 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nəbi</t>
+          <t>1140592398</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Nəbi</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Salam, nazirlik harda yerləşir?</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>2025-07-29 10:24:11</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Digər</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Bakı şəhəri, Yasamal rayonu, Kazım Kazımzadə küçəsi 100a. İndeks AZ 1071</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Ekologiya və Təbii Sərvətlər Nazirliyi</t>
         </is>
@@ -920,32 +1000,148 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>1140592398</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>test Test</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Salam, ekoloji təbii sərbətlər naziliyə halda yerləşək.</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>2025-07-30 09:02:46</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Digər</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Bakı şəhəri, Yasamal rayonu, Kazım Kazımzadə küçəsi 100a. İndeks AZ 1068</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Ekologiya və Təbii Sərvətlər Nazirliyi</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1140592398</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nəbi</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Balıq bileti necə alım</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-07-31 11:36:05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Balıqçılıq</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Balıq və digər su bioresurslarının ovu məqsədi ilə hüquqi və fiziki şəxslər balıqovlama biletini almaq üçün Nazirliyə ərizə təqdim etməlidir. Ərizədə aşağıdakılar göstərilməlidir: balıq və digər su bioresurslarının sənaye üsulu ilə ovu nəzərdə tutulan su obyektinin adı, su bioresurslarının növləri, ov limitinin miqdarı, ovlama üsulu; ovda iştirak edəcək balıqçıların soyadları, adları və atalarının adları. Ərizəyə aşağıdakı sənədlər əlavə edilir: hüquqi şəxslərin dövlət reyestrindən çıxarışının surəti; şəxsiyyət vəsiqəsinin surəti; balıqovlayan gəmilərin qeydiyyatına dair sənədlər; mülkiyyət hüquqlarını təsdiq edən sənədlərin surəti.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Balıqçılıq</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1140592398</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nəbi</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>bəs ovculuq bileti necə</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-07-31 11:36:15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Balıqçılıq</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Yetkinlik yaşına çatmış Azərbaycan Respublikası vətəndaşı aşağıdakı sənədləri təqdim etdikdə və təyin olunmuş vaxtda ovçuluğun minimum sınağını keçdiyi halda ovçuluq biletini əldə edə bilər: fiziki şəxsin şəxsiyyətini təsdiq edən sənəd - şəxsiyyət vəsiqəsinin surəti; ov silahının saxlanılması və gəzdirilməsi hüququnu təsdiq edən şəhadətnamənin surəti; iki ədəd 3x4 ölçüdə foto şəkil; dövlət rüsumunun ödənilməsi barədə qəbzin surəti.</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Ovçuluq</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1140592398</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nəbi</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>rüsumu nə qədərdi?</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-07-31 11:41:10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Balıqçılıq</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Balıqçılıq haqqında Azərbaycan Respublikasının qanununa müvafiq olaraq idman və həvəskar balıq ovu ödənişsizdir.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Balıqçılıq</t>
         </is>
       </c>
     </row>

--- a/chat_histories/chat_history.xlsx
+++ b/chat_histories/chat_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,16 +542,20 @@
           <t>1140592398</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nəbi</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>balıq harda tutmaq olar</t>
+          <t>Balıq harda tutmaq olar</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ovçuluq</t>
+          <t>Balıqçılıq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,26 +575,34 @@
           <t>1140592398</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nəbi</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yard, yard ki.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>Bili et parl janu dələ məcqat.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-07-28 12:25:29</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ovçuluq</t>
+          <t>Balıqçılıq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ovçuluq biletinə malik olan Azərbaycan Respublikası vətəndaşları ov mövsümündə ov icazələrinin əldə edilməsi ilə bağlı Ərazi Ekologiya İdarələrinə müraciət edə bilərlər. Əcnəbilər və vətəndaşlığı olmayan şəxslər isə ov icazələrini almaq üçün Ekologiya və Təbii Sərvətlər Nazirliyinin 5 saylı Asan Xidmət Mərkəzində fəaliyyyət göstərən pəncərəsinə müraciət etməli, xüsusi ərizə formasını doldurmaqla sənədlərin surətlərini təqdim etməlidir. Müraciətdə aşağıdakılar öz əksini tapmalıdır: şəxsiyyəti təsdiq edən sənəd haqqında məlumatlar; ov silahının istifadəsinə dair icazə və silahın respublika ərazisində saxlanma müddəti; ovun vaxtı; ovlama yeri; ov obyektinin növü.</t>
+          <t>Təəssüf ki, sorğunuza uyğun cavab tapa bilmədim. Zəhmət olmasa, sualınızı fərqli şəkildə ifadə edin.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ovçuluq</t>
+          <t>Kateqoriya tapılmadı</t>
         </is>
       </c>
     </row>
@@ -607,10 +619,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Balıq harda tutmaq olar</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>Salam</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-07-28 15:57:11</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Balıqçılıq</t>
@@ -618,12 +634,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gün ərzində 10 ədəddən çox olmayan xərçəng, 0.5 kq-dan artıq olmayan onurğasızlar, balıqçılıq su obyektində olduğu müddətdə 5 kq-dan artıq olmayan balıqlar.</t>
+          <t>Zəhmət olmasa, sorğunuzu daha ətraflı formada yazın.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Balıqçılıq</t>
+          <t>Sistem Mesajı</t>
         </is>
       </c>
     </row>
@@ -640,12 +656,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bili et parl janu dələ məcqat.</t>
+          <t>olay hísmeli.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-07-28 12:25:29</t>
+          <t>2025-07-28 16:00:24</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -655,12 +671,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Təəssüf ki, sorğunuza uyğun cavab tapa bilmədim. Zəhmət olmasa, sualınızı fərqli şəkildə ifadə edin.</t>
+          <t>Zəhmət olmasa, sorğunuzu daha ətraflı formada yazın.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Kateqoriya tapılmadı</t>
+          <t>Sistem Mesajı</t>
         </is>
       </c>
     </row>
@@ -677,12 +693,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Salamğ az ç запис&lt;|fa|&gt; both our לעしНу tam �uit Mygjal 의lehă puesto</t>
+          <t>Avçuluq bileti barədə məlumat</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-07-28 15:57:10</t>
+          <t>2025-07-28 16:52:38</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -692,12 +708,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Təəssüf ki, sorğunuza uyğun cavab tapa bilmədim. Zəhmət olmasa, sualınızı fərqli şəkildə ifadə edin.</t>
+          <t>Yetkinlik yaşına çatmış Azərbaycan Respublikası vətəndaşı aşağıdakı sənədləri təqdim etdikdə və təyin olunmuş vaxtda ovçuluğun minimum sınağını keçdiyi halda ovçuluq biletini əldə edə bilər: fiziki şəxsin şəxsiyyətini təsdiq edən sənəd - şəxsiyyət vəsiqəsinin surəti; ov silahının saxlanılması və gəzdirilməsi hüququnu təsdiq edən şəhadətnamənin surəti; iki ədəd 3x4 ölçüdə foto şəkil; dövlət rüsumunun ödənilməsi barədə qəbzin surəti.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Kateqoriya tapılmadı</t>
+          <t>Ovçuluq</t>
         </is>
       </c>
     </row>
@@ -714,12 +730,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Salam</t>
+          <t>Salam, bağlıqçılığ!</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-07-28 15:57:11</t>
+          <t>2025-07-28 20:30:45</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -751,27 +767,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>olay hísmeli.</t>
+          <t>Bileti haradan əldə etmək olar?</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-07-28 16:00:24</t>
+          <t>2025-07-28 20:42:08</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Balıqçılıq</t>
+          <t>Ovçuluq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Zəhmət olmasa, sorğunuzu daha ətraflı formada yazın.</t>
+          <t>Yetkinlik yaşına çatmış Azərbaycan Respublikası vətəndaşı aşağıdakı sənədləri təqdim etdikdə və təyin olunmuş vaxtda ovçuluğun minimum sınağını keçdiyi halda ovçuluq biletini əldə edə bilər: fiziki şəxsin şəxsiyyətini təsdiq edən sənəd - şəxsiyyət vəsiqəsinin surəti; ov silahının saxlanılması və gəzdirilməsi hüququnu təsdiq edən şəhadətnamənin surəti; iki ədəd 3x4 ölçüdə foto şəkil; dövlət rüsumunun ödənilməsi barədə qəbzin surəti.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sistem Mesajı</t>
+          <t>Ovçuluq</t>
         </is>
       </c>
     </row>
@@ -783,32 +799,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nəbi</t>
+          <t>test Test</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Avçuluq bileti barədə məlumat</t>
+          <t>Ekoloji və Təbii Sərbətlər Nazirliyi harada yerləşir?</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-07-28 16:52:38</t>
+          <t>2025-07-28 20:31:03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Balıqçılıq</t>
+          <t>Ekologiya və Təbii Sərvətlər Nazirliyi</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Yetkinlik yaşına çatmış Azərbaycan Respublikası vətəndaşı aşağıdakı sənədləri təqdim etdikdə və təyin olunmuş vaxtda ovçuluğun minimum sınağını keçdiyi halda ovçuluq biletini əldə edə bilər: fiziki şəxsin şəxsiyyətini təsdiq edən sənəd - şəxsiyyət vəsiqəsinin surəti; ov silahının saxlanılması və gəzdirilməsi hüququnu təsdiq edən şəhadətnamənin surəti; iki ədəd 3x4 ölçüdə foto şəkil; dövlət rüsumunun ödənilməsi barədə qəbzin surəti.</t>
+          <t>Bakı şəhəri, Yasamal rayonu, Kazım Kazımzadə küçəsi 100a. İndeks AZ 1062</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ovçuluq</t>
+          <t>Ekologiya və Təbii Sərvətlər Nazirliyi</t>
         </is>
       </c>
     </row>
@@ -825,27 +841,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Salam, bağlıqçılığ!</t>
+          <t>Nazirliyin binası harada yerləşir.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-07-28 20:30:45</t>
+          <t>2025-07-29 08:58:05</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Balıqçılıq</t>
+          <t>Digər</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Zəhmət olmasa, sorğunuzu daha ətraflı formada yazın.</t>
+          <t>Bakı şəhəri, Yasamal rayonu, Kazım Kazımzadə küçəsi 100a. İndeks AZ 1071</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sistem Mesajı</t>
+          <t>Ekologiya və Təbii Sərvətlər Nazirliyi</t>
         </is>
       </c>
     </row>
@@ -862,27 +878,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Bileti haradan əldə etmək olar?</t>
+          <t>Salam, nazirlik harda yerləşir?</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-07-28 20:42:08</t>
+          <t>2025-07-29 10:24:11</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ovçuluq</t>
+          <t>Digər</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Yetkinlik yaşına çatmış Azərbaycan Respublikası vətəndaşı aşağıdakı sənədləri təqdim etdikdə və təyin olunmuş vaxtda ovçuluğun minimum sınağını keçdiyi halda ovçuluq biletini əldə edə bilər: fiziki şəxsin şəxsiyyətini təsdiq edən sənəd - şəxsiyyət vəsiqəsinin surəti; ov silahının saxlanılması və gəzdirilməsi hüququnu təsdiq edən şəhadətnamənin surəti; iki ədəd 3x4 ölçüdə foto şəkil; dövlət rüsumunun ödənilməsi barədə qəbzin surəti.</t>
+          <t>Bakı şəhəri, Yasamal rayonu, Kazım Kazımzadə küçəsi 100a. İndeks AZ 1071</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ovçuluq</t>
+          <t>Ekologiya və Təbii Sərvətlər Nazirliyi</t>
         </is>
       </c>
     </row>
@@ -899,22 +915,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ekoloji və Təbii Sərbətlər Nazirliyi harada yerləşir?</t>
+          <t>Salam, ekoloji təbii sərbətlər naziliyə halda yerləşək.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-07-28 20:31:03</t>
+          <t>2025-07-30 09:02:46</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ekologiya və Təbii Sərvətlər Nazirliyi</t>
+          <t>Digər</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bakı şəhəri, Yasamal rayonu, Kazım Kazımzadə küçəsi 100a. İndeks AZ 1062</t>
+          <t>Bakı şəhəri, Yasamal rayonu, Kazım Kazımzadə küçəsi 100a. İndeks AZ 1068</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -936,27 +952,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nazirliyin binası harada yerləşir.</t>
+          <t>Balıq bileti necə alım</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-07-29 08:58:05</t>
+          <t>2025-07-31 11:36:05</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Digər</t>
+          <t>Balıqçılıq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bakı şəhəri, Yasamal rayonu, Kazım Kazımzadə küçəsi 100a. İndeks AZ 1071</t>
+          <t>Balıq və digər su bioresurslarının ovu məqsədi ilə hüquqi və fiziki şəxslər balıqovlama biletini almaq üçün Nazirliyə ərizə təqdim etməlidir. Ərizədə aşağıdakılar göstərilməlidir: balıq və digər su bioresurslarının sənaye üsulu ilə ovu nəzərdə tutulan su obyektinin adı, su bioresurslarının növləri, ov limitinin miqdarı, ovlama üsulu; ovda iştirak edəcək balıqçıların soyadları, adları və atalarının adları. Ərizəyə aşağıdakı sənədlər əlavə edilir: hüquqi şəxslərin dövlət reyestrindən çıxarışının surəti; şəxsiyyət vəsiqəsinin surəti; balıqovlayan gəmilərin qeydiyyatına dair sənədlər; mülkiyyət hüquqlarını təsdiq edən sənədlərin surəti.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Ekologiya və Təbii Sərvətlər Nazirliyi</t>
+          <t>Balıqçılıq</t>
         </is>
       </c>
     </row>
@@ -973,27 +989,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Salam, nazirlik harda yerləşir?</t>
+          <t>bəs ovculuq bileti necə</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-07-29 10:24:11</t>
+          <t>2025-07-31 11:36:15</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Digər</t>
+          <t>Balıqçılıq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bakı şəhəri, Yasamal rayonu, Kazım Kazımzadə küçəsi 100a. İndeks AZ 1071</t>
+          <t>Yetkinlik yaşına çatmış Azərbaycan Respublikası vətəndaşı aşağıdakı sənədləri təqdim etdikdə və təyin olunmuş vaxtda ovçuluğun minimum sınağını keçdiyi halda ovçuluq biletini əldə edə bilər: fiziki şəxsin şəxsiyyətini təsdiq edən sənəd - şəxsiyyət vəsiqəsinin surəti; ov silahının saxlanılması və gəzdirilməsi hüququnu təsdiq edən şəhadətnamənin surəti; iki ədəd 3x4 ölçüdə foto şəkil; dövlət rüsumunun ödənilməsi barədə qəbzin surəti.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Ekologiya və Təbii Sərvətlər Nazirliyi</t>
+          <t>Ovçuluq</t>
         </is>
       </c>
     </row>
@@ -1005,143 +1021,106 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>test Test</t>
+          <t>Nəbi</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Salam, ekoloji təbii sərbətlər naziliyə halda yerləşək.</t>
+          <t>rüsumu nə qədərdi?</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-07-30 09:02:46</t>
+          <t>2025-07-31 11:41:10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Digər</t>
+          <t>Balıqçılıq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bakı şəhəri, Yasamal rayonu, Kazım Kazımzadə küçəsi 100a. İndeks AZ 1068</t>
+          <t>Balıqçılıq haqqında Azərbaycan Respublikasının qanununa müvafiq olaraq idman və həvəskar balıq ovu ödənişsizdir.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ekologiya və Təbii Sərvətlər Nazirliyi</t>
+          <t>Balıqçılıq</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1140592398</t>
+          <t>1884204484</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nəbi</t>
+          <t>Specter1161</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Balıq bileti necə alım</t>
+          <t>Nazilik hardad</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-07-31 11:36:05</t>
+          <t>2025-07-31 11:53:24</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Balıqçılıq</t>
+          <t>Ekologiya və Təbii Sərvətlər Nazirliyi</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Balıq və digər su bioresurslarının ovu məqsədi ilə hüquqi və fiziki şəxslər balıqovlama biletini almaq üçün Nazirliyə ərizə təqdim etməlidir. Ərizədə aşağıdakılar göstərilməlidir: balıq və digər su bioresurslarının sənaye üsulu ilə ovu nəzərdə tutulan su obyektinin adı, su bioresurslarının növləri, ov limitinin miqdarı, ovlama üsulu; ovda iştirak edəcək balıqçıların soyadları, adları və atalarının adları. Ərizəyə aşağıdakı sənədlər əlavə edilir: hüquqi şəxslərin dövlət reyestrindən çıxarışının surəti; şəxsiyyət vəsiqəsinin surəti; balıqovlayan gəmilərin qeydiyyatına dair sənədlər; mülkiyyət hüquqlarını təsdiq edən sənədlərin surəti.</t>
+          <t>Zəhmət olmasa, sorğunuzu daha ətraflı formada yazın.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Balıqçılıq</t>
+          <t>Sistem Mesajı</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1140592398</t>
+          <t>1884204484</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nəbi</t>
+          <t>Specter1161</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>bəs ovculuq bileti necə</t>
+          <t>Ekologiya nazirliyi harda yerleshir ?</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-07-31 11:36:15</t>
+          <t>2025-07-31 11:53:53</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Balıqçılıq</t>
+          <t>Ekologiya və Təbii Sərvətlər Nazirliyi</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Yetkinlik yaşına çatmış Azərbaycan Respublikası vətəndaşı aşağıdakı sənədləri təqdim etdikdə və təyin olunmuş vaxtda ovçuluğun minimum sınağını keçdiyi halda ovçuluq biletini əldə edə bilər: fiziki şəxsin şəxsiyyətini təsdiq edən sənəd - şəxsiyyət vəsiqəsinin surəti; ov silahının saxlanılması və gəzdirilməsi hüququnu təsdiq edən şəhadətnamənin surəti; iki ədəd 3x4 ölçüdə foto şəkil; dövlət rüsumunun ödənilməsi barədə qəbzin surəti.</t>
+          <t>Bakı şəhəri, Yasamal rayonu, Kazım Kazımzadə küçəsi 100a. İndeks AZ 1073</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ovçuluq</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>1140592398</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Nəbi</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>rüsumu nə qədərdi?</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2025-07-31 11:41:10</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Balıqçılıq</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Balıqçılıq haqqında Azərbaycan Respublikasının qanununa müvafiq olaraq idman və həvəskar balıq ovu ödənişsizdir.</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Balıqçılıq</t>
+          <t>Ekologiya və Təbii Sərvətlər Nazirliyi</t>
         </is>
       </c>
     </row>
